--- a/Reports/Блоки для матричного умножения.xlsx
+++ b/Reports/Блоки для матричного умножения.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Кофигурация системы:</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>icc</t>
+  </si>
+  <si>
+    <t>Размер блока по строкам</t>
+  </si>
+  <si>
+    <t>Размер блока по стобцам</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -108,6 +114,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,25 +422,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -471,14 +500,32 @@
       <c r="R2">
         <v>192</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>208</v>
+      </c>
+      <c r="T2">
+        <v>224</v>
+      </c>
+      <c r="U2">
+        <v>240</v>
+      </c>
+      <c r="V2">
+        <v>256</v>
+      </c>
+      <c r="W2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G3">
         <v>32</v>
       </c>
@@ -513,16 +560,32 @@
         <v>12.12</v>
       </c>
       <c r="R3">
-        <v>12.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12.23</v>
+      </c>
+      <c r="S3">
+        <v>12.53</v>
+      </c>
+      <c r="T3">
+        <v>13.49</v>
+      </c>
+      <c r="U3">
+        <v>12.95</v>
+      </c>
+      <c r="V3">
+        <v>13.35</v>
+      </c>
+      <c r="W3">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="F4" s="4"/>
       <c r="G4">
         <v>48</v>
       </c>
@@ -557,16 +620,32 @@
         <v>11.08</v>
       </c>
       <c r="R4">
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>11.05</v>
+      </c>
+      <c r="S4">
+        <v>11.31</v>
+      </c>
+      <c r="T4">
+        <v>12.28</v>
+      </c>
+      <c r="U4">
+        <v>11.8</v>
+      </c>
+      <c r="V4">
+        <v>12.56</v>
+      </c>
+      <c r="W4">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="F5" s="4"/>
       <c r="G5">
         <v>64</v>
       </c>
@@ -601,16 +680,32 @@
         <v>10.78</v>
       </c>
       <c r="R5">
-        <v>10.62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10.64</v>
+      </c>
+      <c r="S5">
+        <v>10.94</v>
+      </c>
+      <c r="T5">
+        <v>11.96</v>
+      </c>
+      <c r="U5">
+        <v>11.54</v>
+      </c>
+      <c r="V5">
+        <v>12.32</v>
+      </c>
+      <c r="W5">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>16</v>
       </c>
+      <c r="F6" s="4"/>
       <c r="G6">
         <v>80</v>
       </c>
@@ -645,16 +740,32 @@
         <v>10.45</v>
       </c>
       <c r="R6">
-        <v>10.62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10.66</v>
+      </c>
+      <c r="S6">
+        <v>10.9</v>
+      </c>
+      <c r="T6">
+        <v>11.58</v>
+      </c>
+      <c r="U6">
+        <v>11.58</v>
+      </c>
+      <c r="V6">
+        <v>11.82</v>
+      </c>
+      <c r="W6">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="F7" s="4"/>
       <c r="G7">
         <v>96</v>
       </c>
@@ -689,16 +800,32 @@
         <v>10.4</v>
       </c>
       <c r="R7">
-        <v>10.38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10.6</v>
+      </c>
+      <c r="S7">
+        <v>11</v>
+      </c>
+      <c r="T7">
+        <v>11.85</v>
+      </c>
+      <c r="U7">
+        <v>13.39</v>
+      </c>
+      <c r="V7">
+        <v>14.9</v>
+      </c>
+      <c r="W7">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
+      <c r="F8" s="4"/>
       <c r="G8">
         <v>112</v>
       </c>
@@ -736,13 +863,14 @@
         <v>11.12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
+      <c r="F9" s="4"/>
       <c r="G9">
         <v>128</v>
       </c>
@@ -780,7 +908,8 @@
         <v>12.14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
       <c r="G10">
         <v>144</v>
       </c>
@@ -818,7 +947,8 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
       <c r="G11">
         <v>160</v>
       </c>
@@ -856,7 +986,8 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
       <c r="G12">
         <v>176</v>
       </c>
@@ -894,28 +1025,29 @@
         <v>12.53</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <f>MIN(H3:R13)</f>
-        <v>9.0090000000000003</v>
-      </c>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>MIN(H3:W18)</f>
+        <v>8.7370000000000001</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13">
         <v>192</v>
       </c>
       <c r="H13">
-        <v>9.1180000000000003</v>
+        <v>9.0839999999999996</v>
       </c>
       <c r="I13">
-        <v>9.0540000000000003</v>
+        <v>8.9139999999999997</v>
       </c>
       <c r="J13">
-        <v>9.0090000000000003</v>
+        <v>9.0890000000000004</v>
       </c>
       <c r="K13">
-        <v>9.1920000000000002</v>
+        <v>9.1280000000000001</v>
       </c>
       <c r="L13">
-        <v>9.1509999999999998</v>
+        <v>9.1080000000000005</v>
       </c>
       <c r="M13">
         <v>10.23</v>
@@ -936,10 +1068,129 @@
         <v>12.26</v>
       </c>
     </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+      <c r="G14">
+        <v>208</v>
+      </c>
+      <c r="H14">
+        <v>9.02</v>
+      </c>
+      <c r="I14">
+        <v>8.9849999999999994</v>
+      </c>
+      <c r="J14">
+        <v>9.0169999999999995</v>
+      </c>
+      <c r="K14">
+        <v>9.1080000000000005</v>
+      </c>
+      <c r="L14">
+        <v>9.2560000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+      <c r="G15">
+        <v>224</v>
+      </c>
+      <c r="H15">
+        <v>8.8819999999999997</v>
+      </c>
+      <c r="I15">
+        <v>8.7370000000000001</v>
+      </c>
+      <c r="J15">
+        <v>8.8729999999999993</v>
+      </c>
+      <c r="K15">
+        <v>9.0030000000000001</v>
+      </c>
+      <c r="L15">
+        <v>9.4130000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+      <c r="G16">
+        <v>240</v>
+      </c>
+      <c r="H16">
+        <v>8.9190000000000005</v>
+      </c>
+      <c r="I16">
+        <v>8.8320000000000007</v>
+      </c>
+      <c r="J16">
+        <v>8.9079999999999995</v>
+      </c>
+      <c r="K16">
+        <v>9.0909999999999993</v>
+      </c>
+      <c r="L16">
+        <v>9.6950000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+      <c r="G17">
+        <v>256</v>
+      </c>
+      <c r="H17">
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="I17">
+        <v>8.8209999999999997</v>
+      </c>
+      <c r="J17">
+        <v>8.9570000000000007</v>
+      </c>
+      <c r="K17">
+        <v>9.24</v>
+      </c>
+      <c r="L17">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+      <c r="G18">
+        <v>272</v>
+      </c>
+      <c r="H18">
+        <v>8.9269999999999996</v>
+      </c>
+      <c r="I18">
+        <v>8.8529999999999998</v>
+      </c>
+      <c r="J18">
+        <v>8.9640000000000004</v>
+      </c>
+      <c r="K18">
+        <v>9.391</v>
+      </c>
+      <c r="L18">
+        <v>10.4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F3:F18"/>
+    <mergeCell ref="H1:W1"/>
   </mergeCells>
+  <conditionalFormatting sqref="H3:W18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>